--- a/final assignment/data/optimize_results/results_scenario_0_seed_0.xlsx
+++ b/final assignment/data/optimize_results/results_scenario_0_seed_0.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN9"/>
+  <dimension ref="A1:AN18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -638,28 +638,28 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="n">
         <v>4</v>
@@ -686,52 +686,52 @@
         <v>2</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>4</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA2" t="n">
         <v>6</v>
       </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X2" t="n">
+      <c r="AB2" t="n">
         <v>4</v>
       </c>
-      <c r="Y2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>7</v>
-      </c>
       <c r="AC2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AD2" t="n">
         <v>7</v>
       </c>
       <c r="AE2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AG2" t="n">
         <v>0</v>
       </c>
       <c r="AH2" t="n">
-        <v>77099991.75787257</v>
+        <v>219748970.5427151</v>
       </c>
       <c r="AI2" t="n">
         <v>0</v>
@@ -740,16 +740,16 @@
         <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>112832601.0182171</v>
+        <v>106860238.4866137</v>
       </c>
       <c r="AL2" t="n">
         <v>0</v>
       </c>
       <c r="AM2" t="n">
-        <v>423600000</v>
+        <v>692500000</v>
       </c>
       <c r="AN2" t="n">
-        <v>267.7525379423123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -757,13 +757,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -772,7 +772,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -781,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -793,58 +793,58 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" t="n">
         <v>4</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T3" t="n">
+        <v>2</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2</v>
+      </c>
+      <c r="V3" t="n">
         <v>3</v>
       </c>
-      <c r="U3" t="n">
-        <v>2</v>
-      </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD3" t="n">
         <v>7</v>
       </c>
-      <c r="W3" t="n">
-        <v>5</v>
-      </c>
-      <c r="X3" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>1</v>
-      </c>
       <c r="AE3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AF3" t="n">
         <v>9</v>
@@ -853,25 +853,25 @@
         <v>0</v>
       </c>
       <c r="AH3" t="n">
-        <v>42291505.65437629</v>
+        <v>151323299.4520034</v>
       </c>
       <c r="AI3" t="n">
         <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1620372.155997926</v>
+        <v>3317744.377883067</v>
       </c>
       <c r="AK3" t="n">
-        <v>201617926.3194093</v>
+        <v>93986630.59767582</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.0002298501086488473</v>
+        <v>0.0004748612114822255</v>
       </c>
       <c r="AM3" t="n">
-        <v>1012800000</v>
+        <v>730000000</v>
       </c>
       <c r="AN3" t="n">
-        <v>567.4558279747419</v>
+        <v>254.4545430676968</v>
       </c>
     </row>
     <row r="4">
@@ -879,13 +879,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -897,7 +897,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
@@ -924,76 +924,76 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="U4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="X4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="Y4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Z4" t="n">
         <v>1</v>
       </c>
       <c r="AA4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
         <v>6</v>
       </c>
-      <c r="AC4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>4</v>
-      </c>
       <c r="AE4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AF4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG4" t="n">
         <v>0</v>
       </c>
       <c r="AH4" t="n">
-        <v>103162272.0837578</v>
+        <v>203087197.3942939</v>
       </c>
       <c r="AI4" t="n">
         <v>0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>11527259.85824185</v>
       </c>
       <c r="AK4" t="n">
-        <v>53358573.6002109</v>
+        <v>81277411.11097889</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>0.004751390197018823</v>
       </c>
       <c r="AM4" t="n">
-        <v>756700000</v>
+        <v>702800000</v>
       </c>
       <c r="AN4" t="n">
-        <v>9.927231599876727</v>
+        <v>412.7290215251468</v>
       </c>
     </row>
     <row r="5">
@@ -1001,16 +1001,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -1019,103 +1019,103 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="T5" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y5" t="n">
         <v>6</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>4</v>
       </c>
       <c r="Z5" t="n">
         <v>9</v>
       </c>
       <c r="AA5" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AB5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE5" t="n">
         <v>9</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AF5" t="n">
         <v>5</v>
       </c>
-      <c r="AD5" t="n">
-        <v>4</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>2</v>
-      </c>
       <c r="AG5" t="n">
         <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>322885670.3845375</v>
+        <v>305018724.8793621</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>12115264.47478132</v>
+        <v>0</v>
       </c>
       <c r="AK5" t="n">
-        <v>38245121.95176405</v>
+        <v>100759376.1749364</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.005030363620464182</v>
+        <v>0</v>
       </c>
       <c r="AM5" t="n">
-        <v>1255200000</v>
+        <v>656500000</v>
       </c>
       <c r="AN5" t="n">
-        <v>390.1872327341194</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1126,10 +1126,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -1165,79 +1165,79 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>8</v>
+      </c>
+      <c r="S6" t="n">
+        <v>8</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>9</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA6" t="n">
         <v>4</v>
       </c>
-      <c r="R6" t="n">
-        <v>1</v>
-      </c>
-      <c r="S6" t="n">
-        <v>7</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1</v>
-      </c>
-      <c r="U6" t="n">
+      <c r="AB6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF6" t="n">
         <v>8</v>
       </c>
-      <c r="V6" t="n">
-        <v>1</v>
-      </c>
-      <c r="W6" t="n">
-        <v>6</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>10</v>
-      </c>
       <c r="AG6" t="n">
-        <v>5802215.391150887</v>
+        <v>0</v>
       </c>
       <c r="AH6" t="n">
-        <v>145940066.0722279</v>
+        <v>248526862.9241174</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.0006109007639367815</v>
+        <v>0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>432727.2860183099</v>
       </c>
       <c r="AK6" t="n">
-        <v>220682862.9318487</v>
+        <v>139065708.5084343</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>0.0005102614121909706</v>
       </c>
       <c r="AM6" t="n">
-        <v>242400000</v>
+        <v>486700000</v>
       </c>
       <c r="AN6" t="n">
-        <v>1370.096424213669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1248,25 +1248,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1281,85 +1281,85 @@
         <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>1</v>
       </c>
       <c r="P7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" t="n">
+        <v>7</v>
+      </c>
+      <c r="T7" t="n">
         <v>4</v>
       </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>3</v>
+      </c>
+      <c r="X7" t="n">
         <v>6</v>
       </c>
-      <c r="W7" t="n">
-        <v>6</v>
-      </c>
-      <c r="X7" t="n">
+      <c r="Y7" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA7" t="n">
         <v>3</v>
       </c>
-      <c r="Y7" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z7" t="n">
+      <c r="AB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF7" t="n">
         <v>3</v>
       </c>
-      <c r="AA7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>6</v>
-      </c>
       <c r="AG7" t="n">
         <v>0</v>
       </c>
       <c r="AH7" t="n">
-        <v>47847947.96145424</v>
+        <v>165766213.1316668</v>
       </c>
       <c r="AI7" t="n">
         <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>6841160.063225451</v>
+        <v>6484430.728132116</v>
       </c>
       <c r="AK7" t="n">
-        <v>146841946.5289409</v>
+        <v>87722647.49511826</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.002799513278987693</v>
+        <v>0.007570429386503451</v>
       </c>
       <c r="AM7" t="n">
-        <v>1676900000</v>
+        <v>964800000</v>
       </c>
       <c r="AN7" t="n">
-        <v>221.2911888487566</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1370,19 +1370,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1403,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -1412,76 +1412,76 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R8" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>6</v>
+      </c>
+      <c r="W8" t="n">
+        <v>3</v>
+      </c>
+      <c r="X8" t="n">
         <v>4</v>
       </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>4</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>9</v>
-      </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF8" t="n">
         <v>8</v>
       </c>
-      <c r="AA8" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>4</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>6</v>
-      </c>
       <c r="AG8" t="n">
         <v>0</v>
       </c>
       <c r="AH8" t="n">
-        <v>210102009.8443982</v>
+        <v>77099991.75787257</v>
       </c>
       <c r="AI8" t="n">
         <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>13158073.42072476</v>
+        <v>3258999.589358726</v>
       </c>
       <c r="AK8" t="n">
-        <v>53358573.6002109</v>
+        <v>167075797.824998</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.002264262742503014</v>
+        <v>0.000458811418366211</v>
       </c>
       <c r="AM8" t="n">
-        <v>716300000</v>
+        <v>538900000</v>
       </c>
       <c r="AN8" t="n">
-        <v>704.6636133097743</v>
+        <v>251.245023138839</v>
       </c>
     </row>
     <row r="9">
@@ -1489,10 +1489,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1501,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1510,100 +1510,1198 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>7</v>
+      </c>
+      <c r="S9" t="n">
+        <v>6</v>
+      </c>
+      <c r="T9" t="n">
         <v>3</v>
       </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>2</v>
+      </c>
+      <c r="W9" t="n">
+        <v>6</v>
+      </c>
+      <c r="X9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y9" t="n">
         <v>7</v>
       </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
+      <c r="Z9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA9" t="n">
         <v>6</v>
       </c>
-      <c r="V9" t="n">
+      <c r="AB9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE9" t="n">
         <v>10</v>
       </c>
-      <c r="W9" t="n">
+      <c r="AF9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>210412756.0145641</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>17025595.76758276</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>113454271.8941973</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0.01971832678663028</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>377300000</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>10</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1</v>
+      </c>
+      <c r="W10" t="n">
+        <v>2</v>
+      </c>
+      <c r="X10" t="n">
         <v>7</v>
       </c>
-      <c r="X9" t="n">
+      <c r="Y10" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>95107331.23784721</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>1418270.123022905</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>131081471.7613026</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.0006043024066674694</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>922100000</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>45.31481538486044</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2</v>
+      </c>
+      <c r="V11" t="n">
+        <v>8</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>104000676.5449382</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>433835.5410501959</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>129745367.5021485</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0.0001846024747866052</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>1087700000</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>28.42884397620842</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2</v>
+      </c>
+      <c r="T12" t="n">
+        <v>4</v>
+      </c>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>3</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1</v>
+      </c>
+      <c r="X12" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z12" t="n">
         <v>6</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="AA12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>88429031.37443781</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>147546873.7530487</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>1029800000</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>7</v>
+      </c>
+      <c r="S13" t="n">
         <v>6</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="T13" t="n">
+        <v>9</v>
+      </c>
+      <c r="U13" t="n">
         <v>4</v>
       </c>
-      <c r="AA9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB9" t="n">
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>276923842.0086082</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>53358573.6002109</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>1222600000</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2</v>
+      </c>
+      <c r="S14" t="n">
+        <v>10</v>
+      </c>
+      <c r="T14" t="n">
+        <v>9</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
         <v>5</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="W14" t="n">
+        <v>2</v>
+      </c>
+      <c r="X14" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>266580553.6186045</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>4878903.186621512</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>110061574.43849</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0.0006691215371772232</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>644500000</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>324.9744993009564</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>8</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>4</v>
+      </c>
+      <c r="W15" t="n">
+        <v>5</v>
+      </c>
+      <c r="X15" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>163316429.9187892</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>9156458.114174644</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>121314835.7746612</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>0.003797161653212859</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>704300000</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>295.0051122495952</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="n">
+        <v>8</v>
+      </c>
+      <c r="S16" t="n">
+        <v>8</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>7</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>232098499.0699267</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>9132425.626278874</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>73315450.27094865</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0.003777463746293142</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>710400000</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>849.934609625315</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1</v>
+      </c>
+      <c r="T17" t="n">
+        <v>7</v>
+      </c>
+      <c r="U17" t="n">
+        <v>8</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1</v>
+      </c>
+      <c r="X17" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE17" t="n">
         <v>3</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AF17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>147588218.6910596</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>183066642.3881565</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>84600000</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>142.9579743649285</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>7</v>
+      </c>
+      <c r="S18" t="n">
+        <v>9</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1</v>
+      </c>
+      <c r="W18" t="n">
+        <v>5</v>
+      </c>
+      <c r="X18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC18" t="n">
         <v>10</v>
       </c>
-      <c r="AE9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>68139002.95605196</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>313308584.9380702</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>946900000</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>87.3899285079209</v>
+      <c r="AD18" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>239789149.0008537</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>14175570.27196362</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>99685318.93337613</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>0.005919446670627745</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>550900000</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>645.6424940766176</v>
       </c>
     </row>
   </sheetData>
